--- a/model/results/mix4_ggpos_h2pos/v_emissions.xlsx
+++ b/model/results/mix4_ggpos_h2pos/v_emissions.xlsx
@@ -781,19 +781,19 @@
         <v>2022</v>
       </c>
       <c r="B3" t="n">
-        <v>2776335.897435895</v>
+        <v>2776335.897435897</v>
       </c>
       <c r="C3" t="n">
-        <v>2776335.897435895</v>
+        <v>2667696.666666667</v>
       </c>
       <c r="D3" t="n">
-        <v>2776335.897435892</v>
+        <v>2776335.897435897</v>
       </c>
       <c r="E3" t="n">
-        <v>816538.3333333331</v>
+        <v>849791.0256410255</v>
       </c>
       <c r="F3" t="n">
-        <v>849791.0256410256</v>
+        <v>849791.0256410255</v>
       </c>
       <c r="G3" t="n">
         <v>65600</v>
@@ -912,19 +912,19 @@
         <v>2023</v>
       </c>
       <c r="B4" t="n">
-        <v>2776335.897435895</v>
+        <v>2776335.897435897</v>
       </c>
       <c r="C4" t="n">
-        <v>2776335.897435895</v>
+        <v>2667696.666666667</v>
       </c>
       <c r="D4" t="n">
-        <v>2776335.897435892</v>
+        <v>2776335.897435897</v>
       </c>
       <c r="E4" t="n">
-        <v>816538.333333333</v>
+        <v>849791.0256410255</v>
       </c>
       <c r="F4" t="n">
-        <v>849791.0256410256</v>
+        <v>849791.0256410255</v>
       </c>
       <c r="G4" t="n">
         <v>65600</v>
@@ -1043,19 +1043,19 @@
         <v>2024</v>
       </c>
       <c r="B5" t="n">
-        <v>2776335.897435895</v>
+        <v>2776335.897435897</v>
       </c>
       <c r="C5" t="n">
-        <v>2776335.897435895</v>
+        <v>2667696.666666667</v>
       </c>
       <c r="D5" t="n">
-        <v>2776335.897435892</v>
+        <v>2776335.897435897</v>
       </c>
       <c r="E5" t="n">
-        <v>816538.333333333</v>
+        <v>849791.0256410255</v>
       </c>
       <c r="F5" t="n">
-        <v>849791.0256410256</v>
+        <v>849791.0256410255</v>
       </c>
       <c r="G5" t="n">
         <v>65600</v>
@@ -1142,13 +1142,13 @@
         <v>197600</v>
       </c>
       <c r="AI5" t="n">
-        <v>167960</v>
+        <v>167960.0000000003</v>
       </c>
       <c r="AJ5" t="n">
         <v>167960</v>
       </c>
       <c r="AK5" t="n">
-        <v>395200.0000000009</v>
+        <v>395200</v>
       </c>
       <c r="AL5" t="n">
         <v>395200</v>
@@ -1174,19 +1174,19 @@
         <v>2025</v>
       </c>
       <c r="B6" t="n">
-        <v>1520949.230769221</v>
+        <v>1520949.23076923</v>
       </c>
       <c r="C6" t="n">
-        <v>2053714.411431791</v>
+        <v>2667696.666666667</v>
       </c>
       <c r="D6" t="n">
-        <v>2776335.897435892</v>
+        <v>1792374.411431823</v>
       </c>
       <c r="E6" t="n">
-        <v>240158.333333333</v>
+        <v>465537.692307692</v>
       </c>
       <c r="F6" t="n">
-        <v>465537.6923076895</v>
+        <v>465537.6923076917</v>
       </c>
       <c r="G6" t="n">
         <v>65600</v>
@@ -1305,19 +1305,19 @@
         <v>2026</v>
       </c>
       <c r="B7" t="n">
-        <v>265562.5641025539</v>
+        <v>1520949.23076923</v>
       </c>
       <c r="C7" t="n">
-        <v>1520949.230769221</v>
+        <v>2667696.666666667</v>
       </c>
       <c r="D7" t="n">
-        <v>1520949.23076922</v>
+        <v>1639666.306270257</v>
       </c>
       <c r="E7" t="n">
-        <v>240158.333333333</v>
+        <v>81284.35897435853</v>
       </c>
       <c r="F7" t="n">
-        <v>81284.35897435609</v>
+        <v>81284.3589743583</v>
       </c>
       <c r="G7" t="n">
         <v>65600</v>
@@ -1436,19 +1436,19 @@
         <v>2027</v>
       </c>
       <c r="B8" t="n">
-        <v>265562.5641025539</v>
+        <v>265562.5641025634</v>
       </c>
       <c r="C8" t="n">
-        <v>1520949.230769221</v>
+        <v>1412310</v>
       </c>
       <c r="D8" t="n">
-        <v>265562.5641025525</v>
+        <v>1520949.23076923</v>
       </c>
       <c r="E8" t="n">
-        <v>240158.333333333</v>
+        <v>81284.3589743589</v>
       </c>
       <c r="F8" t="n">
-        <v>81284.35897435609</v>
+        <v>81284.3589743589</v>
       </c>
       <c r="G8" t="n">
         <v>65600</v>
@@ -1567,19 +1567,19 @@
         <v>2028</v>
       </c>
       <c r="B9" t="n">
-        <v>265562.5641025539</v>
+        <v>265562.5641025634</v>
       </c>
       <c r="C9" t="n">
-        <v>1520949.230769221</v>
+        <v>1412310</v>
       </c>
       <c r="D9" t="n">
-        <v>265562.5641025525</v>
+        <v>265562.5641025631</v>
       </c>
       <c r="E9" t="n">
-        <v>240158.333333333</v>
+        <v>81284.3589743589</v>
       </c>
       <c r="F9" t="n">
-        <v>81284.35897435609</v>
+        <v>81284.3589743589</v>
       </c>
       <c r="G9" t="n">
         <v>65600</v>
@@ -1591,31 +1591,31 @@
         <v>17600</v>
       </c>
       <c r="J9" t="n">
-        <v>24600.00000000001</v>
+        <v>24599.99999999665</v>
       </c>
       <c r="K9" t="n">
-        <v>3935.999999999882</v>
+        <v>3936.000000000002</v>
       </c>
       <c r="L9" t="n">
         <v>1968.000000000001</v>
       </c>
       <c r="M9" t="n">
-        <v>3198.000000000001</v>
+        <v>3197.999999999565</v>
       </c>
       <c r="N9" t="n">
         <v>2214.000000000001</v>
       </c>
       <c r="O9" t="n">
-        <v>11070.00000000001</v>
+        <v>11070.00000000042</v>
       </c>
       <c r="P9" t="n">
-        <v>19679.99999999841</v>
+        <v>19680.00000000001</v>
       </c>
       <c r="Q9" t="n">
-        <v>7379.999999999403</v>
+        <v>7380.000000000004</v>
       </c>
       <c r="R9" t="n">
-        <v>2460.000000000001</v>
+        <v>2459.999999999665</v>
       </c>
       <c r="S9" t="n">
         <v>12792.00000000001</v>
@@ -1627,10 +1627,10 @@
         <v>6642.000000000003</v>
       </c>
       <c r="V9" t="n">
-        <v>4920.000000000002</v>
+        <v>4919.999999999331</v>
       </c>
       <c r="W9" t="n">
-        <v>1722.000000000001</v>
+        <v>1721.999999999766</v>
       </c>
       <c r="X9" t="n">
         <v>10824.00000000001</v>
@@ -1639,7 +1639,7 @@
         <v>9102.000000000004</v>
       </c>
       <c r="Z9" t="n">
-        <v>4920.000000000002</v>
+        <v>4919.999999999331</v>
       </c>
       <c r="AA9" t="n">
         <v>24.60000000000001</v>
@@ -1648,7 +1648,7 @@
         <v>123.0000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>2951.999999999815</v>
+        <v>2952.000000000001</v>
       </c>
       <c r="AD9" t="n">
         <v>738.0000000000003</v>
@@ -1698,19 +1698,19 @@
         <v>2029</v>
       </c>
       <c r="B10" t="n">
-        <v>265562.5641025539</v>
+        <v>265562.5641025634</v>
       </c>
       <c r="C10" t="n">
-        <v>265562.5641025539</v>
+        <v>1412310</v>
       </c>
       <c r="D10" t="n">
-        <v>265562.5641025553</v>
+        <v>265562.5641025634</v>
       </c>
       <c r="E10" t="n">
-        <v>240158.333333333</v>
+        <v>81284.3589743589</v>
       </c>
       <c r="F10" t="n">
-        <v>81284.35897435609</v>
+        <v>81284.3589743589</v>
       </c>
       <c r="G10" t="n">
         <v>65600</v>
@@ -1722,31 +1722,31 @@
         <v>17600</v>
       </c>
       <c r="J10" t="n">
-        <v>16400.00000000003</v>
+        <v>16399.99999999667</v>
       </c>
       <c r="K10" t="n">
-        <v>2623.999999999884</v>
+        <v>2624.000000000004</v>
       </c>
       <c r="L10" t="n">
         <v>1312.000000000002</v>
       </c>
       <c r="M10" t="n">
-        <v>2132.000000000003</v>
+        <v>2131.999999999567</v>
       </c>
       <c r="N10" t="n">
         <v>1476.000000000002</v>
       </c>
       <c r="O10" t="n">
-        <v>7380.000000000012</v>
+        <v>7380.000000000424</v>
       </c>
       <c r="P10" t="n">
-        <v>13119.99999999842</v>
+        <v>13120.00000000002</v>
       </c>
       <c r="Q10" t="n">
-        <v>4919.999999999408</v>
+        <v>4920.000000000007</v>
       </c>
       <c r="R10" t="n">
-        <v>1640.000000000003</v>
+        <v>1639.999999999667</v>
       </c>
       <c r="S10" t="n">
         <v>8528.000000000013</v>
@@ -1758,10 +1758,10 @@
         <v>4428.000000000007</v>
       </c>
       <c r="V10" t="n">
-        <v>3280.000000000005</v>
+        <v>3279.999999999333</v>
       </c>
       <c r="W10" t="n">
-        <v>1148.000000000002</v>
+        <v>1147.999999999767</v>
       </c>
       <c r="X10" t="n">
         <v>7216.000000000011</v>
@@ -1770,7 +1770,7 @@
         <v>6068.000000000009</v>
       </c>
       <c r="Z10" t="n">
-        <v>3280.000000000005</v>
+        <v>3279.999999999333</v>
       </c>
       <c r="AA10" t="n">
         <v>16.40000000000003</v>
@@ -1779,7 +1779,7 @@
         <v>82.00000000000013</v>
       </c>
       <c r="AC10" t="n">
-        <v>1967.999999999817</v>
+        <v>1968.000000000003</v>
       </c>
       <c r="AD10" t="n">
         <v>492.0000000000008</v>
@@ -1829,19 +1829,19 @@
         <v>2030</v>
       </c>
       <c r="B11" t="n">
-        <v>265562.5641025541</v>
+        <v>265562.5641025636</v>
       </c>
       <c r="C11" t="n">
-        <v>265562.5641025538</v>
+        <v>265562.5641025755</v>
       </c>
       <c r="D11" t="n">
-        <v>265562.5641025553</v>
+        <v>265562.5641025634</v>
       </c>
       <c r="E11" t="n">
-        <v>240158.333333333</v>
+        <v>81284.35897435877</v>
       </c>
       <c r="F11" t="n">
-        <v>81284.35897435597</v>
+        <v>81284.35897435686</v>
       </c>
       <c r="G11" t="n">
         <v>65600</v>
@@ -1960,19 +1960,19 @@
         <v>2031</v>
       </c>
       <c r="B12" t="n">
-        <v>265562.5641025539</v>
+        <v>265562.5641025636</v>
       </c>
       <c r="C12" t="n">
-        <v>265562.5641025542</v>
+        <v>265562.5641025755</v>
       </c>
       <c r="D12" t="n">
-        <v>265562.5641025553</v>
+        <v>265562.5641025634</v>
       </c>
       <c r="E12" t="n">
-        <v>240158.3333333332</v>
+        <v>81284.35897435722</v>
       </c>
       <c r="F12" t="n">
-        <v>81284.35897435596</v>
+        <v>81284.35897435722</v>
       </c>
       <c r="G12" t="n">
         <v>65600</v>
@@ -2035,10 +2035,10 @@
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>-7.216449660063518e-13</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>-3.608224830031759e-12</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -2091,19 +2091,19 @@
         <v>2032</v>
       </c>
       <c r="B13" t="n">
-        <v>265562.5641025535</v>
+        <v>265562.5641025636</v>
       </c>
       <c r="C13" t="n">
-        <v>265562.5641025542</v>
+        <v>265562.5641025755</v>
       </c>
       <c r="D13" t="n">
-        <v>265562.5641025553</v>
+        <v>265562.5641025634</v>
       </c>
       <c r="E13" t="n">
-        <v>240158.3333333332</v>
+        <v>81284.35897435686</v>
       </c>
       <c r="F13" t="n">
-        <v>81284.35897435597</v>
+        <v>81284.35897435722</v>
       </c>
       <c r="G13" t="n">
         <v>65600</v>
@@ -2222,19 +2222,19 @@
         <v>2033</v>
       </c>
       <c r="B14" t="n">
-        <v>265562.5641025539</v>
+        <v>265562.5641025634</v>
       </c>
       <c r="C14" t="n">
-        <v>265562.5641025538</v>
+        <v>265562.5641025471</v>
       </c>
       <c r="D14" t="n">
-        <v>265562.5641025553</v>
+        <v>265562.5641025634</v>
       </c>
       <c r="E14" t="n">
-        <v>240158.3333333332</v>
+        <v>81284.35897435722</v>
       </c>
       <c r="F14" t="n">
-        <v>81284.35897435597</v>
+        <v>81284.35897435722</v>
       </c>
       <c r="G14" t="n">
         <v>65600</v>
@@ -2353,19 +2353,19 @@
         <v>2034</v>
       </c>
       <c r="B15" t="n">
-        <v>265562.5641025535</v>
+        <v>265562.5641025634</v>
       </c>
       <c r="C15" t="n">
-        <v>265562.5641025542</v>
+        <v>265562.5641025751</v>
       </c>
       <c r="D15" t="n">
-        <v>265562.5641025518</v>
+        <v>265562.5641025634</v>
       </c>
       <c r="E15" t="n">
-        <v>240158.3333333332</v>
+        <v>81284.35897435722</v>
       </c>
       <c r="F15" t="n">
-        <v>81284.35897435597</v>
+        <v>81284.35897435686</v>
       </c>
       <c r="G15" t="n">
         <v>65600</v>
@@ -2484,19 +2484,19 @@
         <v>2035</v>
       </c>
       <c r="B16" t="n">
-        <v>265562.5641025533</v>
+        <v>265562.5641025634</v>
       </c>
       <c r="C16" t="n">
-        <v>265562.5641025541</v>
+        <v>265562.5641025634</v>
       </c>
       <c r="D16" t="n">
-        <v>265562.5641025566</v>
+        <v>265562.5641025634</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>81284.35897435686</v>
       </c>
       <c r="F16" t="n">
-        <v>81284.35897435877</v>
+        <v>81284.35897435865</v>
       </c>
       <c r="G16" t="n">
         <v>65600</v>
@@ -2615,19 +2615,19 @@
         <v>2036</v>
       </c>
       <c r="B17" t="n">
-        <v>265562.5641025533</v>
+        <v>265562.5641025634</v>
       </c>
       <c r="C17" t="n">
-        <v>265562.5641025541</v>
+        <v>265562.5641025634</v>
       </c>
       <c r="D17" t="n">
-        <v>265562.5641027254</v>
+        <v>265562.5641025634</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>81284.35897435686</v>
       </c>
       <c r="F17" t="n">
-        <v>81284.35897435877</v>
+        <v>81284.35897435686</v>
       </c>
       <c r="G17" t="n">
         <v>65600</v>
@@ -2746,19 +2746,19 @@
         <v>2037</v>
       </c>
       <c r="B18" t="n">
-        <v>265562.5641025539</v>
+        <v>265562.5641025447</v>
       </c>
       <c r="C18" t="n">
-        <v>265562.5641025541</v>
+        <v>265562.5641025631</v>
       </c>
       <c r="D18" t="n">
-        <v>265562.5641025525</v>
+        <v>265562.5641025572</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>81284.35897435865</v>
       </c>
       <c r="F18" t="n">
-        <v>81284.35897435615</v>
+        <v>81284.35897435686</v>
       </c>
       <c r="G18" t="n">
         <v>65600</v>
@@ -2877,19 +2877,19 @@
         <v>2038</v>
       </c>
       <c r="B19" t="n">
-        <v>265562.5641025532</v>
+        <v>265562.5641025447</v>
       </c>
       <c r="C19" t="n">
-        <v>265562.5641025542</v>
+        <v>265562.5641025631</v>
       </c>
       <c r="D19" t="n">
-        <v>265562.5641025545</v>
+        <v>265562.5641025572</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>81284.35897435877</v>
       </c>
       <c r="F19" t="n">
-        <v>81284.35897435619</v>
+        <v>81284.35897433065</v>
       </c>
       <c r="G19" t="n">
         <v>65600</v>
@@ -3008,19 +3008,19 @@
         <v>2039</v>
       </c>
       <c r="B20" t="n">
-        <v>265562.5641025541</v>
+        <v>265562.5641025447</v>
       </c>
       <c r="C20" t="n">
-        <v>265562.5641025539</v>
+        <v>265562.5641025634</v>
       </c>
       <c r="D20" t="n">
-        <v>265562.564102551</v>
+        <v>265562.5641025572</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>81284.35897435877</v>
       </c>
       <c r="F20" t="n">
-        <v>81284.35897435596</v>
+        <v>81284.35897435877</v>
       </c>
       <c r="G20" t="n">
         <v>65600</v>
@@ -3139,19 +3139,19 @@
         <v>2040</v>
       </c>
       <c r="B21" t="n">
-        <v>265562.5641025529</v>
+        <v>265562.5641025447</v>
       </c>
       <c r="C21" t="n">
-        <v>265562.5641025542</v>
+        <v>265562.5641025634</v>
       </c>
       <c r="D21" t="n">
-        <v>265562.5641025543</v>
+        <v>265562.5641025572</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>81284.35897434286</v>
       </c>
       <c r="F21" t="n">
-        <v>81284.35897435599</v>
+        <v>81284.35897435865</v>
       </c>
       <c r="G21" t="n">
         <v>65600</v>
